--- a/biology/Zoologie/Eriphia_verrucosa/Eriphia_verrucosa.xlsx
+++ b/biology/Zoologie/Eriphia_verrucosa/Eriphia_verrucosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriphia verrucosa, communément appelé Crabe verruqueux, Crabe jaune, Crabe de roche, Crabe poilu, ou Rocher, est une espèce de crabes de la famille des Eriphiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriphia verrucosa se rencontre sur les côtes de l’Atlantique, de la Bretagne à la Mauritanie et en Méditerranée.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La carapace d'Eriphia verrucosa est brun rougeâtre à brun verdâtre, avec des marbrures jaunâtres, la surface ventrale est jaune et les doigts des pinces sont brun sombre.
 La carapace est épaisse, à face dorsale faiblement bombée, lisse, avec des stries granuleuses transversales en arrière du front et sur les régions latérales. Les bords antérolatéraux sont plus courts que les postérolatéraux, et armés de sept saillies dentiformes dont les dernières sont réduites alors que les premières portent des spinules latérales secondaires. Le front est large, échancré au milieu ; chaque lobe frontal est armé d’un peigne de 5 à 6 dents, avec, légèrement en arrière, un second peigne parallèle de quatre à cinq dents. Les orbites sont presque circulaires à bord inférieur fortement denticulé.
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Crabe verruqueux vit sur les fonds rocheux recouverts d’algues, de préférence dans des anfractuosités de la zone intertidale jusqu’à 6 m de profondeur, parfois plus profond pour les très gros spécimens. Les femelles ovigères sont observées en mai, juillet et août.
 </t>
@@ -607,7 +625,9 @@
           <t>Pêche et utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pêche est artisanale ou sportive, avec des chaluts de fond, dragues, trémails, nasses et à la main. Présent régulièrement sur les marchés de Turquie, occasionnellement sur les côtes liguriennes et en Yougoslavie. Le Crabe verruqueux est commercialisé frais.
 </t>
